--- a/Milestone3/Initial_Simulation_Throughputs.xlsx
+++ b/Milestone3/Initial_Simulation_Throughputs.xlsx
@@ -459,7 +459,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.865</v>
+        <v>5.595000000000001</v>
       </c>
       <c r="D2" t="n">
         <v>20000</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.823</v>
+        <v>6.084000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>20000</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>5.883</v>
+        <v>5.739000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>20000</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.595000000000001</v>
+        <v>6.054</v>
       </c>
       <c r="D5" t="n">
         <v>20000</v>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.613</v>
+        <v>5.61</v>
       </c>
       <c r="D6" t="n">
         <v>20000</v>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5.778</v>
+        <v>5.775</v>
       </c>
       <c r="D7" t="n">
         <v>20000</v>
@@ -543,7 +543,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5.592000000000001</v>
+        <v>5.667000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>20000</v>
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>5.655</v>
+        <v>5.703</v>
       </c>
       <c r="D9" t="n">
         <v>20000</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>5.685</v>
+        <v>5.826000000000001</v>
       </c>
       <c r="D10" t="n">
         <v>20000</v>
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>5.892</v>
+        <v>5.799</v>
       </c>
       <c r="D11" t="n">
         <v>20000</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.738100000000001</v>
+        <v>5.785200000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1169542218134941</v>
+        <v>0.1591312665694583</v>
       </c>
       <c r="D13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="14">
@@ -629,14 +629,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CI:+-0.08358</t>
+          <t>CI:+-0.11373</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.65451577062388</v>
+        <v>5.671472901656641</v>
       </c>
       <c r="D14" t="n">
-        <v>5.821684229376122</v>
+        <v>5.89892709834336</v>
       </c>
     </row>
     <row r="15">
@@ -645,14 +645,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PI:+-0.30324</t>
+          <t>PI:+-0.41260</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.434857640789095</v>
+        <v>5.372599753933684</v>
       </c>
       <c r="D15" t="n">
-        <v>6.041342359210907</v>
+        <v>6.197800246066317</v>
       </c>
     </row>
   </sheetData>
